--- a/excel/characters.xlsx
+++ b/excel/characters.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>80</v>

--- a/excel/characters.xlsx
+++ b/excel/characters.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>character_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>chara2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chara3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,6 +427,20 @@
         <v>80</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/characters.xlsx
+++ b/excel/characters.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>character_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>chara2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +398,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -408,8 +415,11 @@
       <c r="D2">
         <v>100</v>
       </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -421,6 +431,9 @@
       </c>
       <c r="D3">
         <v>80</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
